--- a/menu.xlsx
+++ b/menu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k017c1204\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k017c1204\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>色識別アプリ</t>
     <rPh sb="0" eb="1">
@@ -62,10 +61,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>③</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -126,30 +121,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>②</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>③</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アプリのタイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画像入力画面へ遷移するボタン</t>
     <rPh sb="0" eb="6">
       <t>ガゾウニュウリョクガメン</t>
@@ -177,6 +148,166 @@
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面レイアウト定義</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通情報</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢口 翔太郎</t>
+    <rPh sb="0" eb="2">
+      <t>ヤグチ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ショウタロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工程名</t>
+    <rPh sb="0" eb="2">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日付</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドキュメント名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色識別アプリ　画面設計書　</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書誌情報</t>
+    <rPh sb="0" eb="4">
+      <t>ショシジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面の名称</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像入力画面と履歴画面へ遷移するためのメニュー画面</t>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト図</t>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリのタイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -184,7 +315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +372,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -256,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -396,13 +535,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -436,58 +612,94 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -511,26 +723,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>873125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1590675" y="2276475"/>
-          <a:ext cx="514350" cy="381000"/>
+          <a:off x="889000" y="3987800"/>
+          <a:ext cx="669925" cy="377825"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -561,26 +773,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5019675" y="2324100"/>
-          <a:ext cx="514350" cy="342900"/>
+          <a:off x="4016375" y="3971925"/>
+          <a:ext cx="511175" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -611,26 +823,326 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="514350"/>
-          <a:ext cx="352425" cy="285750"/>
+          <a:off x="2587625" y="2022475"/>
+          <a:ext cx="352425" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>873125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="889000" y="3987800"/>
+          <a:ext cx="669925" cy="377825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4016375" y="3971925"/>
+          <a:ext cx="511175" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2587625" y="2022475"/>
+          <a:ext cx="352425" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>873125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="889000" y="3987800"/>
+          <a:ext cx="669925" cy="377825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4016375" y="3971925"/>
+          <a:ext cx="511175" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2587625" y="2022475"/>
+          <a:ext cx="352425" cy="203200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -925,137 +1437,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="34"/>
+      <c r="B3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="35">
+        <v>43715</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="36"/>
+      <c r="B4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="37">
+        <v>1</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="1:13" ht="30.75" x14ac:dyDescent="0.15">
-      <c r="B6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="A5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="34"/>
+      <c r="B6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="A7" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="18"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B11" s="4"/>
@@ -1064,57 +1602,56 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="6"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6"/>
+    <row r="12" spans="1:13" ht="30.75" x14ac:dyDescent="0.15">
+      <c r="B12" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B13" s="4"/>
-      <c r="C13" s="17" t="s">
-        <v>4</v>
-      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.15">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B15" s="4"/>
@@ -1123,27 +1660,24 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="15"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="K16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
@@ -1154,10 +1688,10 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
+      <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
@@ -1168,161 +1702,264 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="6"/>
+      <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="6"/>
+      <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="9"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="5"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
+    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.15">
+      <c r="B22" s="4"/>
+      <c r="C22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="15"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="21" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="C33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="20" t="s">
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="27"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="B12:H12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
